--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB00EC-9AC9-4A9C-A407-1910CD482FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F966374-5F8D-43F0-B7C6-4AAB5B2D1A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -853,20 +853,19 @@
         <v>9</v>
       </c>
       <c r="E4" s="4">
-        <v>0.83730000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="4">
-        <v>0.79369999999999996</v>
+        <v>0.23</v>
       </c>
       <c r="H4" s="4">
-        <f>E4</f>
-        <v>0.83730000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="I4" s="4">
-        <v>0.87080000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
@@ -874,7 +873,7 @@
       </c>
       <c r="Q4" s="5">
         <f t="shared" ref="Q4" si="0">IF(E4=H4, 1, IF(F4=$F$2, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">

--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F966374-5F8D-43F0-B7C6-4AAB5B2D1A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1294CC-3203-4343-9A4B-44C652A2BAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1001,26 +1001,24 @@
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="3">
-        <f>E8*0.08</f>
-        <v>8.0000000000000004E-4</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <f>E8*1.2</f>
-        <v>1.2E-2</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8" si="2">IF(E8=H8, 1, IF(F8=$F$2, 1, 0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1038,19 +1036,17 @@
         <v>10</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="3">
-        <f>E9*0.08</f>
-        <v>8.0000000000000004E-4</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <f>E9*1.2</f>
-        <v>1.2E-2</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
@@ -1173,7 +1169,7 @@
         <v>94</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12" si="3">IF(E12=H12, 1, IF(F12=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q12" si="2">IF(E12=H12, 1, IF(F12=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1392,7 +1388,7 @@
         <v>89</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" ref="Q18:Q19" si="4">IF(E18=H18, 1, IF(F18=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q18:Q19" si="3">IF(E18=H18, 1, IF(F18=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1429,7 +1425,7 @@
         <v>88</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1505,7 +1501,7 @@
         <v>64</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21" si="5">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q21" si="4">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1798,7 +1794,7 @@
         <v>66</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q31" si="6">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q29:Q31" si="5">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1834,7 +1830,7 @@
         <v>85</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1871,7 +1867,7 @@
         <v>87</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1945,7 +1941,7 @@
         <v>54</v>
       </c>
       <c r="Q33">
-        <f t="shared" ref="Q33:Q35" si="7">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q33:Q35" si="6">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1982,7 +1978,7 @@
         <v>38</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2019,7 +2015,7 @@
         <v>50</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>

--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1294CC-3203-4343-9A4B-44C652A2BAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB262A-1E88-483A-B0CF-22314A45356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Load Statements</t>
-  </si>
-  <si>
     <t>g/L/h</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>% as decimal</t>
+  </si>
+  <si>
+    <t>Load statement</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -792,7 +792,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <f>IF(E2=H2, 1, IF(F2=$F$2, 1, 0))</f>
@@ -801,7 +801,7 @@
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -810,13 +810,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4">
         <v>330</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4">
         <f>0.9*E3</f>
@@ -832,7 +832,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="5">
         <f>IF(E3=H3, 1, IF(F3=$F$2, 1, 0))</f>
@@ -856,7 +856,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4">
         <v>0.23</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" ref="Q4" si="0">IF(E4=H4, 1, IF(F4=$F$2, 1, 0))</f>
@@ -893,7 +893,7 @@
         <v>0.27650000000000002</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3">
         <v>0.21629999999999999</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q32" si="1">IF(E5=H5, 1, IF(F5=$F$2, 1, 0))</f>
@@ -930,7 +930,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3">
         <v>6.7000000000000004E-2</v>
@@ -943,7 +943,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
@@ -952,7 +952,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
@@ -989,7 +989,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1074,7 +1074,7 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3">
         <v>0.17499999999999999</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1111,7 +1111,7 @@
         <v>0.10355</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3">
         <f>E11*0.9</f>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1150,7 +1150,7 @@
         <v>2.5649999999999999</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3">
         <f>E12*0.9</f>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q12">
         <f t="shared" ref="Q12" si="2">IF(E12=H12, 1, IF(F12=$F$2, 1, 0))</f>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1219,13 +1219,13 @@
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3">
         <v>134000</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <f>E14*0.8</f>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="5">
         <f t="shared" ref="Q18:Q19" si="3">IF(E18=H18, 1, IF(F18=$F$2, 1, 0))</f>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="3"/>
@@ -1431,23 +1431,23 @@
     </row>
     <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="4">
         <f>0.2425/2</f>
         <v>0.12125</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="4">
         <f>E20*0.8</f>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="1"/>
@@ -1472,16 +1472,16 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21" si="4">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
@@ -1507,16 +1507,16 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
@@ -1545,13 +1545,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="3">
         <v>0.95</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4">
         <v>0.01</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="1"/>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="1"/>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="1"/>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="27" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="6">
         <v>0.32550000000000001</v>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="1"/>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="1"/>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q29">
         <f t="shared" ref="Q29:Q31" si="5">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
@@ -1800,16 +1800,16 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="3">
         <v>0.3</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q30">
         <f t="shared" si="5"/>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q31">
         <f t="shared" si="5"/>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>14</v>
@@ -1925,7 +1925,7 @@
         <v>168</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="3">
         <v>134.4</v>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <f t="shared" ref="Q33:Q35" si="6">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q34">
         <f t="shared" si="6"/>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>23</v>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <f t="shared" si="6"/>

--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB262A-1E88-483A-B0CF-22314A45356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0699858-7738-4C59-A32C-D27137124189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4020" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1375,8 +1375,8 @@
         <v>22</v>
       </c>
       <c r="G18" s="4">
-        <f>E18*0.08</f>
-        <v>1.6240000000000001E-2</v>
+        <f>E18*0.8</f>
+        <v>0.16240000000000002</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
@@ -1412,8 +1412,8 @@
         <v>22</v>
       </c>
       <c r="G19" s="4">
-        <f>E19*0.08</f>
-        <v>5.2800000000000004E-4</v>
+        <f>E19*0.8</f>
+        <v>5.28E-3</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
@@ -1701,19 +1701,19 @@
         <v>29</v>
       </c>
       <c r="E27" s="6">
-        <v>0.32550000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="4">
         <f>E27*0.8</f>
-        <v>0.26040000000000002</v>
+        <v>0.22400000000000003</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
         <f>E27*1.2</f>
-        <v>0.3906</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">

--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB262A-1E88-483A-B0CF-22314A45356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D1038E-9377-4A21-BAD9-5F954332C39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4020" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1375,8 +1375,8 @@
         <v>22</v>
       </c>
       <c r="G18" s="4">
-        <f>E18*0.08</f>
-        <v>1.6240000000000001E-2</v>
+        <f>E18*0.8</f>
+        <v>0.16240000000000002</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
@@ -1412,8 +1412,8 @@
         <v>22</v>
       </c>
       <c r="G19" s="4">
-        <f>E19*0.08</f>
-        <v>5.2800000000000004E-4</v>
+        <f>E19*0.8</f>
+        <v>5.28E-3</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
@@ -1701,19 +1701,19 @@
         <v>29</v>
       </c>
       <c r="E27" s="6">
-        <v>0.32550000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="4">
         <f>E27*0.8</f>
-        <v>0.26040000000000002</v>
+        <v>0.22080000000000002</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
         <f>E27*1.2</f>
-        <v>0.3906</v>
+        <v>0.33119999999999999</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
